--- a/Code/Results/Cases/Case_1_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.250366044974962</v>
+        <v>7.798604087325389</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.773688803181716</v>
+        <v>4.214406168578183</v>
       </c>
       <c r="E2">
-        <v>13.14973810225975</v>
+        <v>13.10593716066539</v>
       </c>
       <c r="F2">
-        <v>15.21135256471928</v>
+        <v>20.14998911335667</v>
       </c>
       <c r="G2">
-        <v>17.82308716365434</v>
+        <v>21.65500853270591</v>
       </c>
       <c r="H2">
-        <v>7.479160683353337</v>
+        <v>12.49574039983071</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.25325000956827</v>
+        <v>11.62664108442963</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.72135498927797</v>
+        <v>13.0207827403957</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.77875255644516</v>
+        <v>18.06781118903344</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.893259855836847</v>
+        <v>7.726673904500051</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.564014494917423</v>
+        <v>4.130368078683959</v>
       </c>
       <c r="E3">
-        <v>12.48647146908581</v>
+        <v>13.00441565460421</v>
       </c>
       <c r="F3">
-        <v>14.86981765069744</v>
+        <v>20.17992074103945</v>
       </c>
       <c r="G3">
-        <v>17.37151448738607</v>
+        <v>21.69537377469808</v>
       </c>
       <c r="H3">
-        <v>7.540744422357617</v>
+        <v>12.54518136912992</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.47045218573913</v>
+        <v>11.25785599029455</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.70104218992752</v>
+        <v>12.73383572142636</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.76663442287787</v>
+        <v>18.14355556221603</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.667690397799849</v>
+        <v>7.684021651053623</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.429762801802759</v>
+        <v>4.077310613995063</v>
       </c>
       <c r="E4">
-        <v>12.07747888666515</v>
+        <v>12.94718014833197</v>
       </c>
       <c r="F4">
-        <v>14.6745513270972</v>
+        <v>20.20502078673313</v>
       </c>
       <c r="G4">
-        <v>17.11875428844138</v>
+        <v>21.73005288235932</v>
       </c>
       <c r="H4">
-        <v>7.58458659896467</v>
+        <v>12.57787916355296</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.96887378939097</v>
+        <v>11.02377102952373</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.04179545876437</v>
+        <v>12.55667693715103</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.77339736987722</v>
+        <v>18.19492896177139</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.574312871376074</v>
+        <v>7.667040349198293</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.373711644629878</v>
+        <v>4.055339622000782</v>
       </c>
       <c r="E5">
-        <v>11.91061049101951</v>
+        <v>12.92516208216719</v>
       </c>
       <c r="F5">
-        <v>14.59863925600588</v>
+        <v>20.21693443812654</v>
       </c>
       <c r="G5">
-        <v>17.02191771072117</v>
+        <v>21.74665886561944</v>
       </c>
       <c r="H5">
-        <v>7.603906185686952</v>
+        <v>12.5917920267041</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.75936679851106</v>
+        <v>10.9265571148112</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.76492915902914</v>
+        <v>12.48434171146046</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.77957144764504</v>
+        <v>18.21708352944031</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.55872383530539</v>
+        <v>7.664245316631435</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.364324712260878</v>
+        <v>4.0516707490784</v>
       </c>
       <c r="E6">
-        <v>11.88289762661723</v>
+        <v>12.92158550092553</v>
       </c>
       <c r="F6">
-        <v>14.58625575536369</v>
+        <v>20.21901430316414</v>
       </c>
       <c r="G6">
-        <v>17.00620977573623</v>
+        <v>21.74956524502463</v>
       </c>
       <c r="H6">
-        <v>7.607200201612538</v>
+        <v>12.59413776480713</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.72427483115792</v>
+        <v>10.91030789362204</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.71846043603477</v>
+        <v>12.47232501934017</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.78079853881047</v>
+        <v>18.22083581052795</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.66643678590651</v>
+        <v>7.683790991348075</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.429012249720614</v>
+        <v>4.07701569823829</v>
       </c>
       <c r="E7">
-        <v>12.07522891365147</v>
+        <v>12.94687788862688</v>
       </c>
       <c r="F7">
-        <v>14.67351270128934</v>
+        <v>20.2051746426612</v>
       </c>
       <c r="G7">
-        <v>17.11742337759268</v>
+        <v>21.73026683967632</v>
       </c>
       <c r="H7">
-        <v>7.584841345005894</v>
+        <v>12.57806441600398</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.96606876706884</v>
+        <v>11.0224672068266</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.03809477273279</v>
+        <v>12.55570183400273</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.77346700122374</v>
+        <v>18.19522281387564</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.128615756166017</v>
+        <v>7.773500324981717</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.702560667224206</v>
+        <v>4.185742264160899</v>
       </c>
       <c r="E8">
-        <v>12.92153770564267</v>
+        <v>13.06988935297551</v>
       </c>
       <c r="F8">
-        <v>15.09061769991697</v>
+        <v>20.15891163829814</v>
       </c>
       <c r="G8">
-        <v>17.66231115946208</v>
+        <v>21.66686495449707</v>
       </c>
       <c r="H8">
-        <v>7.499104788832913</v>
+        <v>12.51230157878637</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.9877709552204</v>
+        <v>11.50112933410158</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.37636007097056</v>
+        <v>12.92210585700271</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.77153525203276</v>
+        <v>18.09291545499159</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.980232348255903</v>
+        <v>7.960543578451127</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.19370440629784</v>
+        <v>4.386691190071272</v>
       </c>
       <c r="E9">
-        <v>14.55870873370922</v>
+        <v>13.35038695673873</v>
       </c>
       <c r="F9">
-        <v>16.02109435719402</v>
+        <v>20.12170808932341</v>
       </c>
       <c r="G9">
-        <v>18.9235045260615</v>
+        <v>21.62157392240606</v>
       </c>
       <c r="H9">
-        <v>7.381766290409189</v>
+        <v>12.40193112881442</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.81980655309927</v>
+        <v>12.37512740736518</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.74066926288193</v>
+        <v>13.62857352440115</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.88704447083023</v>
+        <v>17.93108091487483</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.607529283797504</v>
+        <v>8.10352559870546</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.525277144356235</v>
+        <v>4.525985095861918</v>
       </c>
       <c r="E10">
-        <v>15.74700028804768</v>
+        <v>13.57862961556798</v>
       </c>
       <c r="F10">
-        <v>16.76994867637218</v>
+        <v>20.12718290641449</v>
       </c>
       <c r="G10">
-        <v>19.96344732469129</v>
+        <v>21.63705347361172</v>
       </c>
       <c r="H10">
-        <v>7.330779346395238</v>
+        <v>12.33219792664546</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.05575645394649</v>
+        <v>12.97317150624564</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.32039168472987</v>
+        <v>14.13476945049795</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.053164473995</v>
+        <v>17.83606820307124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.917330800329795</v>
+        <v>8.169512982184504</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.669513840297244</v>
+        <v>4.587377105711187</v>
       </c>
       <c r="E11">
-        <v>16.37753514161687</v>
+        <v>13.68684814697952</v>
       </c>
       <c r="F11">
-        <v>17.12396346534225</v>
+        <v>20.13681319340147</v>
       </c>
       <c r="G11">
-        <v>20.45996661991064</v>
+        <v>21.65475367271813</v>
       </c>
       <c r="H11">
-        <v>7.316209698075316</v>
+        <v>12.30294541937402</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.59338613662084</v>
+        <v>13.23484867118879</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.00541020287477</v>
+        <v>14.36119709414519</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.14803759561748</v>
+        <v>17.79808027212824</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.032224845432753</v>
+        <v>8.194613939607585</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.723168548713678</v>
+        <v>4.610328328368277</v>
       </c>
       <c r="E12">
-        <v>16.61330446182749</v>
+        <v>13.7284205187101</v>
       </c>
       <c r="F12">
-        <v>17.25987073614327</v>
+        <v>20.14148594841245</v>
       </c>
       <c r="G12">
-        <v>20.65125047454972</v>
+        <v>21.66299083652084</v>
       </c>
       <c r="H12">
-        <v>7.312017355715711</v>
+        <v>12.29222384720494</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.79339348886582</v>
+        <v>13.3323890075635</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.26003262296045</v>
+        <v>14.44630532014846</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.18686225754382</v>
+        <v>17.78445168590102</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.007587575394165</v>
+        <v>8.189203337335018</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.711656162413528</v>
+        <v>4.605398757332489</v>
       </c>
       <c r="E13">
-        <v>16.5626593868203</v>
+        <v>13.71944145253855</v>
       </c>
       <c r="F13">
-        <v>17.23051949850072</v>
+        <v>20.14043398080425</v>
       </c>
       <c r="G13">
-        <v>20.6099106324627</v>
+        <v>21.6611485684025</v>
       </c>
       <c r="H13">
-        <v>7.312859949701007</v>
+        <v>12.29451709920806</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.75047812979976</v>
+        <v>13.31145180347909</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.20540673329758</v>
+        <v>14.42800523304047</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.17836992944093</v>
+        <v>17.78735313294884</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.926831559361789</v>
+        <v>8.171575919381088</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.673947455499723</v>
+        <v>4.589271330973054</v>
       </c>
       <c r="E14">
-        <v>16.39699166836741</v>
+        <v>13.69025668672559</v>
       </c>
       <c r="F14">
-        <v>17.13510796225987</v>
+        <v>20.13717707011556</v>
       </c>
       <c r="G14">
-        <v>20.47563887051264</v>
+        <v>21.65540059475612</v>
       </c>
       <c r="H14">
-        <v>7.315837744225037</v>
+        <v>12.30205621655968</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.60991282868941</v>
+        <v>13.24290477354362</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.02645358531568</v>
+        <v>14.36821217685178</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.15117297319216</v>
+        <v>17.79694385401654</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.877051727299486</v>
+        <v>8.160792652968478</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.650723755422407</v>
+        <v>4.579353826373657</v>
       </c>
       <c r="E15">
-        <v>16.29512717404699</v>
+        <v>13.67245614068142</v>
       </c>
       <c r="F15">
-        <v>17.07690446940915</v>
+        <v>20.13531568853481</v>
       </c>
       <c r="G15">
-        <v>20.39381530949703</v>
+        <v>21.65207963894076</v>
       </c>
       <c r="H15">
-        <v>7.317836827395732</v>
+        <v>12.30672048672831</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.52334511640796</v>
+        <v>13.20071410359175</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.91621896756275</v>
+        <v>14.3315021608802</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.13489495230707</v>
+        <v>17.80291709774141</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.586942672640223</v>
+        <v>8.099230216699024</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.515716736102318</v>
+        <v>4.521932155235</v>
       </c>
       <c r="E16">
-        <v>15.70536899484865</v>
+        <v>13.5716423223201</v>
       </c>
       <c r="F16">
-        <v>16.74707558307027</v>
+        <v>20.12669718131045</v>
       </c>
       <c r="G16">
-        <v>19.93146101967574</v>
+        <v>21.63611141367535</v>
       </c>
       <c r="H16">
-        <v>7.331912227593515</v>
+        <v>12.33415939096894</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.02012190544198</v>
+        <v>12.95585628354931</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.27495220486374</v>
+        <v>14.11988736385525</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.04736342963261</v>
+        <v>17.8386564672464</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.404627378335913</v>
+        <v>8.061689243981254</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.431192036622694</v>
+        <v>4.486190947047359</v>
       </c>
       <c r="E17">
-        <v>15.39832403215081</v>
+        <v>13.51089343858405</v>
       </c>
       <c r="F17">
-        <v>16.54810557218586</v>
+        <v>20.12323854598799</v>
       </c>
       <c r="G17">
-        <v>19.65374813975901</v>
+        <v>21.62904742714665</v>
       </c>
       <c r="H17">
-        <v>7.342815313575018</v>
+        <v>12.35162519421561</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.70507256457107</v>
+        <v>12.80294207532974</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.87298332347273</v>
+        <v>13.98902376039255</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.99870016665148</v>
+        <v>17.86192481737111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.312596653537204</v>
+        <v>8.040186902931069</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.381955382032121</v>
+        <v>4.465448501524186</v>
       </c>
       <c r="E18">
-        <v>15.22183750588285</v>
+        <v>13.47636790581622</v>
       </c>
       <c r="F18">
-        <v>16.43492467472037</v>
+        <v>20.12192137807624</v>
       </c>
       <c r="G18">
-        <v>19.49622823988837</v>
+        <v>21.62598769112499</v>
       </c>
       <c r="H18">
-        <v>7.349893014705522</v>
+        <v>12.3619034642113</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.52154962077649</v>
+        <v>12.71401627709679</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.63861453603588</v>
+        <v>13.9133972797887</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.97252066093266</v>
+        <v>17.87580055981936</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.282859599523585</v>
+        <v>8.032922772656867</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.365178708542941</v>
+        <v>4.458394089556159</v>
       </c>
       <c r="E19">
-        <v>15.16198737610779</v>
+        <v>13.4647506978059</v>
       </c>
       <c r="F19">
-        <v>16.39682244249136</v>
+        <v>20.12159085168092</v>
       </c>
       <c r="G19">
-        <v>19.44327818704675</v>
+        <v>21.62512393409033</v>
       </c>
       <c r="H19">
-        <v>7.352425393102223</v>
+        <v>12.36542340660284</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.45901585697604</v>
+        <v>12.68374223139913</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.55871591685936</v>
+        <v>13.887732706033</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.96396376268867</v>
+        <v>17.8805830940493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.424201064529946</v>
+        <v>8.065676371090403</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.44025415904312</v>
+        <v>4.490014907222951</v>
       </c>
       <c r="E20">
-        <v>15.43094214750231</v>
+        <v>13.51731752325072</v>
       </c>
       <c r="F20">
-        <v>16.56915624914032</v>
+        <v>20.12353716019098</v>
       </c>
       <c r="G20">
-        <v>19.68308289047827</v>
+        <v>21.62969554324101</v>
       </c>
       <c r="H20">
-        <v>7.34157058401775</v>
+        <v>12.34974187250697</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.73885004170966</v>
+        <v>12.81932126704639</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.91610100803957</v>
+        <v>14.00299199745298</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.00369217528115</v>
+        <v>17.85939687043669</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.950617036291909</v>
+        <v>8.176750634799482</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.685049704275983</v>
+        <v>4.594016494126751</v>
       </c>
       <c r="E21">
-        <v>16.44573304154727</v>
+        <v>13.69881319993841</v>
       </c>
       <c r="F21">
-        <v>17.16308299195127</v>
+        <v>20.13810587078692</v>
       </c>
       <c r="G21">
-        <v>20.51499003084212</v>
+        <v>21.65704726707477</v>
       </c>
       <c r="H21">
-        <v>7.314926448516293</v>
+        <v>12.29983213608621</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.65129772767782</v>
+        <v>13.26308123077595</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.0791456962167</v>
+        <v>14.38579270853618</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.159081795063</v>
+        <v>17.79410626123935</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.280562157268061</v>
+        <v>8.249992045230274</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.839410446924562</v>
+        <v>4.660253448490015</v>
       </c>
       <c r="E22">
-        <v>17.12648124378366</v>
+        <v>13.82086494271665</v>
       </c>
       <c r="F22">
-        <v>17.5619999480956</v>
+        <v>20.15360634049672</v>
       </c>
       <c r="G22">
-        <v>21.07766205021859</v>
+        <v>21.68386632826271</v>
       </c>
       <c r="H22">
-        <v>7.305276543588694</v>
+        <v>12.26928691834468</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.2267504709584</v>
+        <v>13.54404031422365</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.81143731161348</v>
+        <v>14.63223964619444</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.27758087046981</v>
+        <v>17.75584696931466</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.105744660245271</v>
+        <v>8.210849947049901</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.757544438005013</v>
+        <v>4.625064201782389</v>
       </c>
       <c r="E23">
-        <v>16.76471962964594</v>
+        <v>13.75542261410816</v>
       </c>
       <c r="F23">
-        <v>17.3481288954703</v>
+        <v>20.14478692104177</v>
       </c>
       <c r="G23">
-        <v>20.77565163675104</v>
+        <v>21.66873427247659</v>
       </c>
       <c r="H23">
-        <v>7.309687817841769</v>
+        <v>12.28539953124277</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.92154178933507</v>
+        <v>13.39493421307074</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.42312537545519</v>
+        <v>14.50107378949698</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.21274757950664</v>
+        <v>17.77586170433426</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.415356950252388</v>
+        <v>8.063873538558344</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.43615917280689</v>
+        <v>4.488286699197583</v>
       </c>
       <c r="E24">
-        <v>15.41619749986403</v>
+        <v>13.51441194626876</v>
       </c>
       <c r="F24">
-        <v>16.55963546493402</v>
+        <v>20.12340006577602</v>
       </c>
       <c r="G24">
-        <v>19.66981397279922</v>
+        <v>21.62939941068839</v>
       </c>
       <c r="H24">
-        <v>7.342130811617022</v>
+        <v>12.35059258420945</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.72358670666678</v>
+        <v>12.81191938641654</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.89661769681642</v>
+        <v>13.99667816981836</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.00142969828521</v>
+        <v>17.86053820286856</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.756287271472795</v>
+        <v>7.908876942641446</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.065877558775724</v>
+        <v>4.333735240519236</v>
       </c>
       <c r="E25">
-        <v>14.11926382977783</v>
+        <v>13.27047474044806</v>
       </c>
       <c r="F25">
-        <v>15.75764665245889</v>
+        <v>20.12601994830032</v>
       </c>
       <c r="G25">
-        <v>18.5620381546754</v>
+        <v>21.62529643513135</v>
       </c>
       <c r="H25">
-        <v>7.407644222310915</v>
+        <v>12.42979671400431</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.34320500774</v>
+        <v>12.14612519031655</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.1288288440646</v>
+        <v>13.43933194335323</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.84211581799157</v>
+        <v>17.97068349319241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.798604087325389</v>
+        <v>7.25036604497491</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.214406168578183</v>
+        <v>4.773688803181833</v>
       </c>
       <c r="E2">
-        <v>13.10593716066539</v>
+        <v>13.14973810225978</v>
       </c>
       <c r="F2">
-        <v>20.14998911335667</v>
+        <v>15.21135256471907</v>
       </c>
       <c r="G2">
-        <v>21.65500853270591</v>
+        <v>17.82308716365411</v>
       </c>
       <c r="H2">
-        <v>12.49574039983071</v>
+        <v>7.479160683353222</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.62664108442963</v>
+        <v>16.25325000956831</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.0207827403957</v>
+        <v>16.72135498927798</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.06781118903344</v>
+        <v>11.77875255644496</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.726673904500051</v>
+        <v>6.893259855836797</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.130368078683959</v>
+        <v>4.564014494917478</v>
       </c>
       <c r="E3">
-        <v>13.00441565460421</v>
+        <v>12.48647146908576</v>
       </c>
       <c r="F3">
-        <v>20.17992074103945</v>
+        <v>14.86981765069739</v>
       </c>
       <c r="G3">
-        <v>21.69537377469808</v>
+        <v>17.37151448738603</v>
       </c>
       <c r="H3">
-        <v>12.54518136912992</v>
+        <v>7.540744422357613</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.25785599029455</v>
+        <v>15.4704521857391</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.73383572142636</v>
+        <v>15.70104218992755</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.14355556221603</v>
+        <v>11.76663442287784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.684021651053623</v>
+        <v>6.66769039779984</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.077310613995063</v>
+        <v>4.429762801802708</v>
       </c>
       <c r="E4">
-        <v>12.94718014833197</v>
+        <v>12.07747888666516</v>
       </c>
       <c r="F4">
-        <v>20.20502078673313</v>
+        <v>14.67455132709724</v>
       </c>
       <c r="G4">
-        <v>21.73005288235932</v>
+        <v>17.11875428844134</v>
       </c>
       <c r="H4">
-        <v>12.57787916355296</v>
+        <v>7.58458659896471</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.02377102952373</v>
+        <v>14.96887378939098</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.55667693715103</v>
+        <v>15.04179545876433</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.19492896177139</v>
+        <v>11.77339736987725</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.667040349198293</v>
+        <v>6.574312871376052</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.055339622000782</v>
+        <v>4.373711644629935</v>
       </c>
       <c r="E5">
-        <v>12.92516208216719</v>
+        <v>11.91061049101951</v>
       </c>
       <c r="F5">
-        <v>20.21693443812654</v>
+        <v>14.5986392560058</v>
       </c>
       <c r="G5">
-        <v>21.74665886561944</v>
+        <v>17.02191771072103</v>
       </c>
       <c r="H5">
-        <v>12.5917920267041</v>
+        <v>7.603906185686952</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.9265571148112</v>
+        <v>14.75936679851112</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.48434171146046</v>
+        <v>14.76492915902917</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.21708352944031</v>
+        <v>11.77957144764501</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.664245316631435</v>
+        <v>6.558723835305383</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.0516707490784</v>
+        <v>4.364324712261027</v>
       </c>
       <c r="E6">
-        <v>12.92158550092553</v>
+        <v>11.8828976266173</v>
       </c>
       <c r="F6">
-        <v>20.21901430316414</v>
+        <v>14.58625575536362</v>
       </c>
       <c r="G6">
-        <v>21.74956524502463</v>
+        <v>17.0062097757361</v>
       </c>
       <c r="H6">
-        <v>12.59413776480713</v>
+        <v>7.60720020161259</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.91030789362204</v>
+        <v>14.72427483115792</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.47232501934017</v>
+        <v>14.71846043603471</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.22083581052795</v>
+        <v>11.78079853881045</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.683790991348075</v>
+        <v>6.666436785906591</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.07701569823829</v>
+        <v>4.429012249720551</v>
       </c>
       <c r="E7">
-        <v>12.94687788862688</v>
+        <v>12.07522891365146</v>
       </c>
       <c r="F7">
-        <v>20.2051746426612</v>
+        <v>14.67351270128928</v>
       </c>
       <c r="G7">
-        <v>21.73026683967632</v>
+        <v>17.11742337759258</v>
       </c>
       <c r="H7">
-        <v>12.57806441600398</v>
+        <v>7.584841345005885</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.0224672068266</v>
+        <v>14.96606876706882</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.55570183400273</v>
+        <v>15.03809477273281</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.19522281387564</v>
+        <v>11.77346700122368</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.773500324981717</v>
+        <v>7.128615756166062</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.185742264160899</v>
+        <v>4.702560667224212</v>
       </c>
       <c r="E8">
-        <v>13.06988935297551</v>
+        <v>12.9215377056427</v>
       </c>
       <c r="F8">
-        <v>20.15891163829814</v>
+        <v>15.09061769991691</v>
       </c>
       <c r="G8">
-        <v>21.66686495449707</v>
+        <v>17.66231115946193</v>
       </c>
       <c r="H8">
-        <v>12.51230157878637</v>
+        <v>7.499104788832908</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.50112933410158</v>
+        <v>15.98777095522047</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.92210585700271</v>
+        <v>16.37636007097058</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.09291545499159</v>
+        <v>11.77153525203269</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.960543578451127</v>
+        <v>7.980232348255869</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.386691190071272</v>
+        <v>5.193704406297763</v>
       </c>
       <c r="E9">
-        <v>13.35038695673873</v>
+        <v>14.55870873370925</v>
       </c>
       <c r="F9">
-        <v>20.12170808932341</v>
+        <v>16.02109435719405</v>
       </c>
       <c r="G9">
-        <v>21.62157392240606</v>
+        <v>18.92350452606146</v>
       </c>
       <c r="H9">
-        <v>12.40193112881442</v>
+        <v>7.381766290409189</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.37512740736518</v>
+        <v>17.81980655309933</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.62857352440115</v>
+        <v>18.74066926288192</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.93108091487483</v>
+        <v>11.88704447083019</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.10352559870546</v>
+        <v>8.607529283797472</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.525985095861918</v>
+        <v>5.525277144356224</v>
       </c>
       <c r="E10">
-        <v>13.57862961556798</v>
+        <v>15.74700028804767</v>
       </c>
       <c r="F10">
-        <v>20.12718290641449</v>
+        <v>16.76994867637213</v>
       </c>
       <c r="G10">
-        <v>21.63705347361172</v>
+        <v>19.96344732469127</v>
       </c>
       <c r="H10">
-        <v>12.33219792664546</v>
+        <v>7.330779346395132</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.97317150624564</v>
+        <v>19.05575645394652</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.13476945049795</v>
+        <v>20.32039168472987</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.83606820307124</v>
+        <v>12.05316447399494</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.169512982184504</v>
+        <v>8.91733080032982</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.587377105711187</v>
+        <v>5.669513840297286</v>
       </c>
       <c r="E11">
-        <v>13.68684814697952</v>
+        <v>16.37753514161686</v>
       </c>
       <c r="F11">
-        <v>20.13681319340147</v>
+        <v>17.12396346534219</v>
       </c>
       <c r="G11">
-        <v>21.65475367271813</v>
+        <v>20.45996661991065</v>
       </c>
       <c r="H11">
-        <v>12.30294541937402</v>
+        <v>7.316209698075273</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.23484867118879</v>
+        <v>19.59338613662088</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.36119709414519</v>
+        <v>21.00541020287477</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.79808027212824</v>
+        <v>12.14803759561745</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.194613939607585</v>
+        <v>9.032224845432745</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.610328328368277</v>
+        <v>5.723168548713729</v>
       </c>
       <c r="E12">
-        <v>13.7284205187101</v>
+        <v>16.61330446182745</v>
       </c>
       <c r="F12">
-        <v>20.14148594841245</v>
+        <v>17.25987073614327</v>
       </c>
       <c r="G12">
-        <v>21.66299083652084</v>
+        <v>20.65125047454977</v>
       </c>
       <c r="H12">
-        <v>12.29222384720494</v>
+        <v>7.312017355715741</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.3323890075635</v>
+        <v>19.79339348886581</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.44630532014846</v>
+        <v>21.26003262296042</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.78445168590102</v>
+        <v>12.18686225754386</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.189203337335018</v>
+        <v>9.007587575394229</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.605398757332489</v>
+        <v>5.711656162413602</v>
       </c>
       <c r="E13">
-        <v>13.71944145253855</v>
+        <v>16.56265938682034</v>
       </c>
       <c r="F13">
-        <v>20.14043398080425</v>
+        <v>17.23051949850074</v>
       </c>
       <c r="G13">
-        <v>21.6611485684025</v>
+        <v>20.60991063246275</v>
       </c>
       <c r="H13">
-        <v>12.29451709920806</v>
+        <v>7.312859949701007</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.31145180347909</v>
+        <v>19.75047812979976</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.42800523304047</v>
+        <v>21.20540673329762</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.78735313294884</v>
+        <v>12.17836992944095</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.171575919381088</v>
+        <v>8.92683155936178</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.589271330973054</v>
+        <v>5.673947455499798</v>
       </c>
       <c r="E14">
-        <v>13.69025668672559</v>
+        <v>16.39699166836736</v>
       </c>
       <c r="F14">
-        <v>20.13717707011556</v>
+        <v>17.13510796225983</v>
       </c>
       <c r="G14">
-        <v>21.65540059475612</v>
+        <v>20.47563887051261</v>
       </c>
       <c r="H14">
-        <v>12.30205621655968</v>
+        <v>7.315837744224941</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.24290477354362</v>
+        <v>19.60991282868946</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.36821217685178</v>
+        <v>21.02645358531566</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.79694385401654</v>
+        <v>12.15117297319214</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.160792652968478</v>
+        <v>8.877051727299451</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.579353826373657</v>
+        <v>5.650723755422422</v>
       </c>
       <c r="E15">
-        <v>13.67245614068142</v>
+        <v>16.295127174047</v>
       </c>
       <c r="F15">
-        <v>20.13531568853481</v>
+        <v>17.07690446940904</v>
       </c>
       <c r="G15">
-        <v>21.65207963894076</v>
+        <v>20.39381530949682</v>
       </c>
       <c r="H15">
-        <v>12.30672048672831</v>
+        <v>7.317836827395635</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.20071410359175</v>
+        <v>19.52334511640806</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.3315021608802</v>
+        <v>20.9162189675628</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.80291709774141</v>
+        <v>12.13489495230693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.099230216699024</v>
+        <v>8.586942672640207</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.521932155235</v>
+        <v>5.515716736102311</v>
       </c>
       <c r="E16">
-        <v>13.5716423223201</v>
+        <v>15.70536899484869</v>
       </c>
       <c r="F16">
-        <v>20.12669718131045</v>
+        <v>16.74707558307017</v>
       </c>
       <c r="G16">
-        <v>21.63611141367535</v>
+        <v>19.93146101967569</v>
       </c>
       <c r="H16">
-        <v>12.33415939096894</v>
+        <v>7.331912227593454</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.95585628354931</v>
+        <v>19.02012190544197</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.11988736385525</v>
+        <v>20.27495220486376</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.8386564672464</v>
+        <v>12.04736342963254</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.061689243981254</v>
+        <v>8.404627378335913</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.486190947047359</v>
+        <v>5.4311920366227</v>
       </c>
       <c r="E17">
-        <v>13.51089343858405</v>
+        <v>15.39832403215084</v>
       </c>
       <c r="F17">
-        <v>20.12323854598799</v>
+        <v>16.54810557218583</v>
       </c>
       <c r="G17">
-        <v>21.62904742714665</v>
+        <v>19.65374813975899</v>
       </c>
       <c r="H17">
-        <v>12.35162519421561</v>
+        <v>7.342815313574991</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.80294207532974</v>
+        <v>18.70507256457111</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.98902376039255</v>
+        <v>19.87298332347276</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.86192481737111</v>
+        <v>11.99870016665141</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.040186902931069</v>
+        <v>8.312596653537215</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.465448501524186</v>
+        <v>5.381955382032114</v>
       </c>
       <c r="E18">
-        <v>13.47636790581622</v>
+        <v>15.22183750588285</v>
       </c>
       <c r="F18">
-        <v>20.12192137807624</v>
+        <v>16.43492467472034</v>
       </c>
       <c r="G18">
-        <v>21.62598769112499</v>
+        <v>19.49622823988835</v>
       </c>
       <c r="H18">
-        <v>12.3619034642113</v>
+        <v>7.349893014705522</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.71401627709679</v>
+        <v>18.52154962077653</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.9133972797887</v>
+        <v>19.63861453603589</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.87580055981936</v>
+        <v>11.97252066093261</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.032922772656867</v>
+        <v>8.282859599523558</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.458394089556159</v>
+        <v>5.365178708543084</v>
       </c>
       <c r="E19">
-        <v>13.4647506978059</v>
+        <v>15.16198737610779</v>
       </c>
       <c r="F19">
-        <v>20.12159085168092</v>
+        <v>16.39682244249131</v>
       </c>
       <c r="G19">
-        <v>21.62512393409033</v>
+        <v>19.44327818704677</v>
       </c>
       <c r="H19">
-        <v>12.36542340660284</v>
+        <v>7.352425393102176</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.68374223139913</v>
+        <v>18.45901585697602</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.887732706033</v>
+        <v>19.55871591685935</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.8805830940493</v>
+        <v>11.96396376268866</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.065676371090403</v>
+        <v>8.42420106452991</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.490014907222951</v>
+        <v>5.440254159043098</v>
       </c>
       <c r="E20">
-        <v>13.51731752325072</v>
+        <v>15.43094214750232</v>
       </c>
       <c r="F20">
-        <v>20.12353716019098</v>
+        <v>16.56915624914028</v>
       </c>
       <c r="G20">
-        <v>21.62969554324101</v>
+        <v>19.68308289047822</v>
       </c>
       <c r="H20">
-        <v>12.34974187250697</v>
+        <v>7.34157058401775</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.81932126704639</v>
+        <v>18.7388500417097</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.00299199745298</v>
+        <v>19.91610100803961</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.85939687043669</v>
+        <v>12.00369217528111</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.176750634799482</v>
+        <v>8.950617036291884</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.594016494126751</v>
+        <v>5.685049704276005</v>
       </c>
       <c r="E21">
-        <v>13.69881319993841</v>
+        <v>16.44573304154728</v>
       </c>
       <c r="F21">
-        <v>20.13810587078692</v>
+        <v>17.16308299195117</v>
       </c>
       <c r="G21">
-        <v>21.65704726707477</v>
+        <v>20.51499003084208</v>
       </c>
       <c r="H21">
-        <v>12.29983213608621</v>
+        <v>7.314926448516274</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.26308123077595</v>
+        <v>19.65129772767788</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.38579270853618</v>
+        <v>21.07914569621674</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.79410626123935</v>
+        <v>12.15908179506292</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.249992045230274</v>
+        <v>9.280562157268017</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.660253448490015</v>
+        <v>5.839410446924632</v>
       </c>
       <c r="E22">
-        <v>13.82086494271665</v>
+        <v>17.12648124378364</v>
       </c>
       <c r="F22">
-        <v>20.15360634049672</v>
+        <v>17.56199994809554</v>
       </c>
       <c r="G22">
-        <v>21.68386632826271</v>
+        <v>21.07766205021857</v>
       </c>
       <c r="H22">
-        <v>12.26928691834468</v>
+        <v>7.305276543588561</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.54404031422365</v>
+        <v>20.22675047095843</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.63223964619444</v>
+        <v>21.8114373116135</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.75584696931466</v>
+        <v>12.27758087046975</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.210849947049901</v>
+        <v>9.10574466024528</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.625064201782389</v>
+        <v>5.757544438004939</v>
       </c>
       <c r="E23">
-        <v>13.75542261410816</v>
+        <v>16.76471962964589</v>
       </c>
       <c r="F23">
-        <v>20.14478692104177</v>
+        <v>17.34812889547026</v>
       </c>
       <c r="G23">
-        <v>21.66873427247659</v>
+        <v>20.77565163675098</v>
       </c>
       <c r="H23">
-        <v>12.28539953124277</v>
+        <v>7.309687817841722</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.39493421307074</v>
+        <v>19.92154178933511</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.50107378949698</v>
+        <v>21.42312537545517</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.77586170433426</v>
+        <v>12.21274757950656</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.063873538558344</v>
+        <v>8.415356950252429</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.488286699197583</v>
+        <v>5.436159172806936</v>
       </c>
       <c r="E24">
-        <v>13.51441194626876</v>
+        <v>15.41619749986405</v>
       </c>
       <c r="F24">
-        <v>20.12340006577602</v>
+        <v>16.55963546493396</v>
       </c>
       <c r="G24">
-        <v>21.62939941068839</v>
+        <v>19.66981397279915</v>
       </c>
       <c r="H24">
-        <v>12.35059258420945</v>
+        <v>7.342130811617022</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.81191938641654</v>
+        <v>18.72358670666681</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.99667816981836</v>
+        <v>19.89661769681643</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.86053820286856</v>
+        <v>12.00142969828516</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.908876942641446</v>
+        <v>7.756287271472815</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.333735240519236</v>
+        <v>5.065877558775724</v>
       </c>
       <c r="E25">
-        <v>13.27047474044806</v>
+        <v>14.11926382977786</v>
       </c>
       <c r="F25">
-        <v>20.12601994830032</v>
+        <v>15.75764665245882</v>
       </c>
       <c r="G25">
-        <v>21.62529643513135</v>
+        <v>18.56203815467526</v>
       </c>
       <c r="H25">
-        <v>12.42979671400431</v>
+        <v>7.407644222310908</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.14612519031655</v>
+        <v>17.34320500774002</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.43933194335323</v>
+        <v>18.12882884406459</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.97068349319241</v>
+        <v>11.84211581799149</v>
       </c>
     </row>
   </sheetData>
